--- a/storage/app/excel/contact_book_1.xlsx
+++ b/storage/app/excel/contact_book_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27915" windowHeight="12240"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -96,9 +96,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,6 +105,35 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,21 +164,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -165,8 +194,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,67 +233,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,13 +285,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFEBCB42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBCB42"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,25 +345,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,151 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,16 +600,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,15 +628,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,26 +643,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,16 +663,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,15 +701,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -725,134 +719,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,9 +856,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,9 +886,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -934,10 +922,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -949,28 +937,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1302,30 +1287,34 @@
   <sheetPr/>
   <dimension ref="A1:AH84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22:Y23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.1428571428571" customWidth="1"/>
+    <col min="14" max="14" width="16.5714285714286" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -1347,10 +1336,10 @@
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1420,23 +1409,23 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>44598</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1493,27 +1482,27 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1566,31 +1555,31 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="37"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -1602,34 +1591,34 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -1641,30 +1630,30 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -1749,34 +1738,34 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="1"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="28" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -1789,30 +1778,30 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="1"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -1825,34 +1814,34 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="1"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="12" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -1865,30 +1854,30 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="1"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -1901,30 +1890,30 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="1"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -1937,30 +1926,30 @@
     </row>
     <row r="18" spans="1:34">
       <c r="A18" s="1"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -1973,30 +1962,30 @@
     </row>
     <row r="19" spans="1:34">
       <c r="A19" s="1"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -2009,30 +1998,30 @@
     </row>
     <row r="20" spans="1:34">
       <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -2045,30 +2034,30 @@
     </row>
     <row r="21" spans="1:34">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -2081,38 +2070,38 @@
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="1"/>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="12" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="28" t="s">
+      <c r="O22" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -2125,30 +2114,30 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="1"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -2161,34 +2150,34 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="1"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="28" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
@@ -2201,30 +2190,30 @@
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="1"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
@@ -2237,30 +2226,30 @@
     </row>
     <row r="26" spans="1:34">
       <c r="A26" s="1"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
@@ -2273,38 +2262,38 @@
     </row>
     <row r="27" spans="1:34">
       <c r="A27" s="1"/>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="12" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="28" t="s">
+      <c r="O27" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="29"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="27"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
@@ -2317,30 +2306,30 @@
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="1"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="30"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="28"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
@@ -2353,34 +2342,34 @@
     </row>
     <row r="29" spans="1:34">
       <c r="A29" s="1"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="28" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="29"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="27"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -2393,30 +2382,30 @@
     </row>
     <row r="30" spans="1:34">
       <c r="A30" s="1"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="30"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="28"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -2429,30 +2418,30 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="1"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
@@ -2465,34 +2454,34 @@
     </row>
     <row r="32" spans="1:34">
       <c r="A32" s="1"/>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="12" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O32" s="16"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="29"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="27"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -2505,30 +2494,30 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="1"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="30"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="28"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -2541,30 +2530,30 @@
     </row>
     <row r="34" spans="1:34">
       <c r="A34" s="1"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="29"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="27"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -2577,30 +2566,30 @@
     </row>
     <row r="35" spans="1:34">
       <c r="A35" s="1"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="30"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="28"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -2613,30 +2602,30 @@
     </row>
     <row r="36" spans="1:34">
       <c r="A36" s="1"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -2649,34 +2638,34 @@
     </row>
     <row r="37" spans="1:34">
       <c r="A37" s="1"/>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="20" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O37" s="16"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="29"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="27"/>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -2689,30 +2678,30 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" s="1"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="30"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="28"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -2725,30 +2714,30 @@
     </row>
     <row r="39" spans="1:34">
       <c r="A39" s="1"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
@@ -2761,34 +2750,34 @@
     </row>
     <row r="40" spans="1:34">
       <c r="A40" s="1"/>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="20" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="29"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="27"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -2801,30 +2790,30 @@
     </row>
     <row r="41" spans="1:34">
       <c r="A41" s="1"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="30"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="28"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -2837,30 +2826,30 @@
     </row>
     <row r="42" spans="1:34">
       <c r="A42" s="1"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="29"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="27"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -2873,30 +2862,30 @@
     </row>
     <row r="43" spans="1:34">
       <c r="A43" s="1"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="19"/>
-      <c r="T43" s="19"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="30"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="28"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
@@ -2909,30 +2898,30 @@
     </row>
     <row r="44" spans="1:34">
       <c r="A44" s="1"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
@@ -2945,34 +2934,34 @@
     </row>
     <row r="45" spans="1:34">
       <c r="A45" s="1"/>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="32" t="s">
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="38"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="35"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
@@ -2985,30 +2974,30 @@
     </row>
     <row r="46" spans="1:34">
       <c r="A46" s="1"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="36"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="39"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
+      <c r="S46" s="34"/>
+      <c r="T46" s="34"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="36"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -3021,30 +3010,30 @@
     </row>
     <row r="47" spans="1:34">
       <c r="A47" s="1"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
@@ -3057,30 +3046,30 @@
     </row>
     <row r="48" spans="1:34">
       <c r="A48" s="1"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
@@ -3093,30 +3082,30 @@
     </row>
     <row r="49" spans="1:34">
       <c r="A49" s="1"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
@@ -3129,30 +3118,30 @@
     </row>
     <row r="50" spans="1:34">
       <c r="A50" s="1"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
@@ -3165,30 +3154,30 @@
     </row>
     <row r="51" spans="1:34">
       <c r="A51" s="1"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
@@ -3201,30 +3190,30 @@
     </row>
     <row r="52" spans="1:34">
       <c r="A52" s="1"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
@@ -3237,30 +3226,30 @@
     </row>
     <row r="53" spans="1:34">
       <c r="A53" s="1"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
@@ -3273,30 +3262,30 @@
     </row>
     <row r="54" spans="1:34">
       <c r="A54" s="1"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
-      <c r="T54" s="15"/>
-      <c r="U54" s="15"/>
-      <c r="V54" s="15"/>
-      <c r="W54" s="15"/>
-      <c r="X54" s="15"/>
-      <c r="Y54" s="15"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="13"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
@@ -3309,30 +3298,30 @@
     </row>
     <row r="55" spans="1:34">
       <c r="A55" s="1"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="15"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="15"/>
-      <c r="X55" s="15"/>
-      <c r="Y55" s="15"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
@@ -3345,30 +3334,30 @@
     </row>
     <row r="56" spans="1:34">
       <c r="A56" s="1"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
-      <c r="T56" s="15"/>
-      <c r="U56" s="15"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="15"/>
-      <c r="X56" s="15"/>
-      <c r="Y56" s="15"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
@@ -3381,30 +3370,30 @@
     </row>
     <row r="57" spans="1:34">
       <c r="A57" s="1"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
-      <c r="X57" s="15"/>
-      <c r="Y57" s="15"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="13"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
@@ -3417,30 +3406,30 @@
     </row>
     <row r="58" spans="1:34">
       <c r="A58" s="1"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
-      <c r="T58" s="15"/>
-      <c r="U58" s="15"/>
-      <c r="V58" s="15"/>
-      <c r="W58" s="15"/>
-      <c r="X58" s="15"/>
-      <c r="Y58" s="15"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="13"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
@@ -3453,30 +3442,30 @@
     </row>
     <row r="59" spans="1:34">
       <c r="A59" s="1"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="15"/>
-      <c r="U59" s="15"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="15"/>
-      <c r="X59" s="15"/>
-      <c r="Y59" s="15"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+      <c r="X59" s="13"/>
+      <c r="Y59" s="13"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
@@ -3489,30 +3478,30 @@
     </row>
     <row r="60" spans="1:34">
       <c r="A60" s="1"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
-      <c r="T60" s="15"/>
-      <c r="U60" s="15"/>
-      <c r="V60" s="15"/>
-      <c r="W60" s="15"/>
-      <c r="X60" s="15"/>
-      <c r="Y60" s="15"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+      <c r="X60" s="13"/>
+      <c r="Y60" s="13"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>

--- a/storage/app/excel/contact_book_1.xlsx
+++ b/storage/app/excel/contact_book_1.xlsx
@@ -49,10 +49,10 @@
     <t>機嫌</t>
   </si>
   <si>
-    <t>前夜</t>
+    <t>午前</t>
   </si>
   <si>
-    <t>今朝</t>
+    <t>午後</t>
   </si>
   <si>
     <t>排便</t>
@@ -61,10 +61,10 @@
     <t>睡眠</t>
   </si>
   <si>
-    <t>入浴</t>
+    <t>沐浴</t>
   </si>
   <si>
-    <t>気温</t>
+    <t>検温</t>
   </si>
   <si>
     <t>家庭での様子</t>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,28 +97,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,7 +157,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -147,6 +179,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -155,16 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,48 +211,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,7 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,7 +291,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,19 +315,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,43 +333,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,19 +375,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,19 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,49 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,11 +623,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,17 +653,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +679,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -687,21 +696,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,130 +719,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:P10"/>
+      <selection activeCell="R24" sqref="R24:Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/storage/app/excel/contact_book_1.xlsx
+++ b/storage/app/excel/contact_book_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>001-保育園</t>
   </si>
@@ -49,7 +49,13 @@
     <t>機嫌</t>
   </si>
   <si>
+    <t>前夜</t>
+  </si>
+  <si>
     <t>午前</t>
+  </si>
+  <si>
+    <t>今朝</t>
   </si>
   <si>
     <t>午後</t>
@@ -59,6 +65,9 @@
   </si>
   <si>
     <t>睡眠</t>
+  </si>
+  <si>
+    <t>入浴</t>
   </si>
   <si>
     <t>沐浴</t>
@@ -76,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,25 +106,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,13 +150,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -150,29 +158,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -203,8 +190,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -212,14 +206,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +237,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,7 +300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,13 +312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,25 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,13 +372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +396,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,49 +444,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,13 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,21 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -653,15 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -677,11 +662,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,130 +728,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,8 +1296,8 @@
   <sheetPr/>
   <dimension ref="A1:AH84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24:Y25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32:Y33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2090,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
@@ -2152,7 +2161,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="11"/>
       <c r="C24" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -2166,7 +2175,7 @@
       <c r="M24" s="12"/>
       <c r="N24" s="11"/>
       <c r="O24" s="26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P24" s="26"/>
       <c r="Q24" s="26"/>
@@ -2263,7 +2272,7 @@
     <row r="27" spans="1:34">
       <c r="A27" s="1"/>
       <c r="B27" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>11</v>
@@ -2279,10 +2288,10 @@
       <c r="L27" s="14"/>
       <c r="M27" s="27"/>
       <c r="N27" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P27" s="26"/>
       <c r="Q27" s="26"/>
@@ -2344,7 +2353,7 @@
       <c r="A29" s="1"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -2358,7 +2367,7 @@
       <c r="M29" s="27"/>
       <c r="N29" s="11"/>
       <c r="O29" s="26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P29" s="26"/>
       <c r="Q29" s="26"/>
@@ -2455,7 +2464,7 @@
     <row r="32" spans="1:34">
       <c r="A32" s="1"/>
       <c r="B32" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="15"/>
@@ -2469,7 +2478,7 @@
       <c r="L32" s="15"/>
       <c r="M32" s="27"/>
       <c r="N32" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="15"/>
@@ -2639,7 +2648,7 @@
     <row r="37" spans="1:34">
       <c r="A37" s="1"/>
       <c r="B37" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="15"/>
@@ -2653,7 +2662,7 @@
       <c r="L37" s="15"/>
       <c r="M37" s="27"/>
       <c r="N37" s="18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O37" s="14"/>
       <c r="P37" s="15"/>
@@ -2751,7 +2760,7 @@
     <row r="40" spans="1:34">
       <c r="A40" s="1"/>
       <c r="B40" s="18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -2765,7 +2774,7 @@
       <c r="L40" s="15"/>
       <c r="M40" s="27"/>
       <c r="N40" s="18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
@@ -2935,7 +2944,7 @@
     <row r="45" spans="1:34">
       <c r="A45" s="1"/>
       <c r="B45" s="21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C45" s="22"/>
       <c r="D45" s="22"/>
@@ -2949,7 +2958,7 @@
       <c r="L45" s="22"/>
       <c r="M45" s="29"/>
       <c r="N45" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O45" s="31"/>
       <c r="P45" s="31"/>

--- a/storage/app/excel/contact_book_1.xlsx
+++ b/storage/app/excel/contact_book_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>001-保育園</t>
   </si>
@@ -78,16 +78,19 @@
   <si>
     <t>家庭での様子</t>
   </si>
+  <si>
+    <t>保育園での様子</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -112,16 +115,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,7 +139,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,7 +154,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,17 +200,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,7 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,13 +240,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,7 +303,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,13 +333,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +411,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,133 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,8 +614,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,6 +650,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -647,17 +674,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,24 +700,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -710,15 +713,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,130 +731,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1297,7 +1300,7 @@
   <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32:Y33"/>
+      <selection activeCell="N47" sqref="N47:Y53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -2958,7 +2961,7 @@
       <c r="L45" s="22"/>
       <c r="M45" s="29"/>
       <c r="N45" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O45" s="31"/>
       <c r="P45" s="31"/>

--- a/storage/app/excel/contact_book_1.xlsx
+++ b/storage/app/excel/contact_book_1.xlsx
@@ -76,10 +76,10 @@
     <t>検温</t>
   </si>
   <si>
-    <t>家庭での様子</t>
+    <t>家庭からの連絡事項</t>
   </si>
   <si>
-    <t>保育園での様子</t>
+    <t>保育園からの連絡事項</t>
   </si>
 </sst>
 </file>
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -108,6 +108,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -116,7 +132,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,15 +169,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,21 +200,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,10 +214,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,64 +244,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -303,13 +303,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,61 +327,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,49 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +381,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,31 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +611,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -635,6 +665,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -652,24 +691,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,38 +708,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,130 +731,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:AH84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47:Y53"/>
+      <selection activeCell="N45" sqref="N45:Y46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/storage/app/excel/contact_book_1.xlsx
+++ b/storage/app/excel/contact_book_1.xlsx
@@ -76,10 +76,10 @@
     <t>検温</t>
   </si>
   <si>
-    <t>家庭からの連絡事項</t>
+    <t>家庭での様子・連絡事項</t>
   </si>
   <si>
-    <t>保育園からの連絡事項</t>
+    <t>保育園での様子・連絡事項</t>
   </si>
 </sst>
 </file>
@@ -89,8 +89,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -110,7 +110,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,7 +156,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,22 +177,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,68 +224,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,11 +245,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -303,7 +303,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,43 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,67 +381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +405,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,25 +465,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,6 +611,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -622,6 +633,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,15 +694,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -664,56 +708,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,127 +734,127 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/storage/app/excel/contact_book_1.xlsx
+++ b/storage/app/excel/contact_book_1.xlsx
@@ -1,44 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\新しいフォルダー (2)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292E6A92-200C-4715-8699-86DC6266F977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="2295" windowWidth="28410" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Z$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Z$53</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
+    <t>2022-05-19</t>
+  </si>
+  <si>
     <t>天気</t>
   </si>
   <si>
+    <t>記入者</t>
+  </si>
+  <si>
+    <t>保護者様名</t>
+  </si>
+  <si>
     <t>保育士名</t>
+  </si>
+  <si>
+    <t>園長</t>
   </si>
   <si>
     <t>お迎え時間</t>
@@ -91,60 +87,183 @@
   <si>
     <t>保育園での様子・連絡事項</t>
   </si>
-  <si>
-    <t>記入者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保護者様名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>child001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>001-保育園</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,48 +272,234 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE896CD"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAEAF5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BB3FC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA89557"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBCB42"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE896CD"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAEAF5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8BB3FC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA89557"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCD5BC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBCB42"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -204,26 +509,63 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -232,19 +574,30 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -253,273 +606,518 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFA89557"/>
-      <color rgb="FFDCD5BC"/>
-      <color rgb="FF8BB3FC"/>
-      <color rgb="FFEBCB42"/>
-    </mruColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -529,39 +1127,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -640,187 +1238,218 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AH84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="AI43" sqref="AI43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
-    <col min="3" max="13" width="4.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="3" customWidth="1"/>
-    <col min="15" max="26" width="4.625" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="9.125" style="3"/>
+    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1"/>
+    <col min="3" max="5" width="3.625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="4.375" style="1" customWidth="1"/>
+    <col min="8" max="13" width="4.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="1"/>
+    <col min="15" max="17" width="3.625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="4.375" style="1" customWidth="1"/>
+    <col min="20" max="25" width="4.75" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="27" customHeight="1" spans="1:33">
       <c r="A1" s="2"/>
-      <c r="B1" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -830,32 +1459,32 @@
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
     </row>
-    <row r="2" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="10.9" customHeight="1" spans="1:33">
       <c r="A2" s="2"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -865,7 +1494,7 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="10.9" customHeight="1" spans="1:33">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -900,28 +1529,26 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="27" customHeight="1" spans="1:33">
       <c r="A4" s="2"/>
-      <c r="B4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="21">
-        <v>44598</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="23" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -941,7 +1568,7 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="27" customHeight="1" spans="1:33">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -976,34 +1603,36 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="27" customHeight="1" spans="1:33">
       <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>20</v>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="23" t="s">
-        <v>1</v>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="6" t="s">
+        <v>4</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="35"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1017,7 +1646,7 @@
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
     </row>
-    <row r="7" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="8.45" customHeight="1" spans="1:33">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1052,32 +1681,32 @@
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
     </row>
-    <row r="8" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
+    <row r="8" ht="8.45" customHeight="1" spans="1:33">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -1087,36 +1716,36 @@
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
     </row>
-    <row r="9" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="16.15" customHeight="1" spans="1:33">
       <c r="A9" s="2"/>
-      <c r="B9" s="19" t="s">
-        <v>2</v>
+      <c r="B9" s="12" t="s">
+        <v>6</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19" t="s">
-        <v>3</v>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="12" t="s">
+        <v>7</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -1126,32 +1755,32 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="16.15" customHeight="1" spans="1:34">
       <c r="A10" s="2"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -1162,7 +1791,7 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
-    <row r="11" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="15" customHeight="1" spans="1:34">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1198,32 +1827,36 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="16.15" customHeight="1" spans="1:34">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="B12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -1234,36 +1867,32 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="16.15" customHeight="1" spans="1:34">
       <c r="A13" s="2"/>
-      <c r="B13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -1274,32 +1903,36 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="23.45" customHeight="1" spans="1:34">
       <c r="A14" s="2"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
+      <c r="B14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -1310,36 +1943,32 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
     </row>
-    <row r="15" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="23.45" customHeight="1" spans="1:34">
       <c r="A15" s="2"/>
-      <c r="B15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -1350,32 +1979,32 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row r="16" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="23.45" customHeight="1" spans="1:34">
       <c r="A16" s="2"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
@@ -1386,32 +2015,32 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="23.45" customHeight="1" spans="1:34">
       <c r="A17" s="2"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -1422,32 +2051,32 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
     </row>
-    <row r="18" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="23.45" customHeight="1" spans="1:34">
       <c r="A18" s="2"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -1458,32 +2087,32 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
     </row>
-    <row r="19" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="23.45" customHeight="1" spans="1:34">
       <c r="A19" s="2"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -1494,32 +2123,32 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
     </row>
-    <row r="20" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="15" customHeight="1" spans="1:34">
       <c r="A20" s="2"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -1530,32 +2159,40 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
     </row>
-    <row r="21" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="18" customHeight="1" spans="1:34">
       <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
+      <c r="B21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O21" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -1566,40 +2203,32 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
     </row>
-    <row r="22" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="18" customHeight="1" spans="1:34">
       <c r="A22" s="2"/>
-      <c r="B22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -1610,32 +2239,36 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
     </row>
-    <row r="23" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="18" customHeight="1" spans="1:34">
       <c r="A23" s="2"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -1646,36 +2279,32 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
     </row>
-    <row r="24" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="18" customHeight="1" spans="1:34">
       <c r="A24" s="2"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -1686,32 +2315,32 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="15" customHeight="1" spans="1:34">
       <c r="A25" s="2"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
@@ -1722,32 +2351,40 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="18" customHeight="1" spans="1:34">
       <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
+      <c r="B26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="18"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
@@ -1758,40 +2395,32 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
     </row>
-    <row r="27" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="18" customHeight="1" spans="1:34">
       <c r="A27" s="2"/>
-      <c r="B27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="22"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
@@ -1802,12 +2431,14 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="18" customHeight="1" spans="1:34">
       <c r="A28" s="2"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
@@ -1816,10 +2447,12 @@
       <c r="K28" s="18"/>
       <c r="L28" s="16"/>
       <c r="M28" s="18"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
       <c r="R28" s="16"/>
       <c r="S28" s="17"/>
       <c r="T28" s="17"/>
@@ -1838,36 +2471,32 @@
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row r="29" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="18" customHeight="1" spans="1:34">
       <c r="A29" s="2"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="22"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -1878,32 +2507,32 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="15" customHeight="1" spans="1:34">
       <c r="A30" s="2"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="18"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
@@ -1914,32 +2543,36 @@
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
     </row>
-    <row r="31" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="13.9" customHeight="1" spans="1:34">
       <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
+      <c r="B31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="18"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
@@ -1950,36 +2583,32 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
     </row>
-    <row r="32" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="13.9" customHeight="1" spans="1:34">
       <c r="A32" s="2"/>
-      <c r="B32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O32" s="13"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="22"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
@@ -1990,9 +2619,9 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="13.9" customHeight="1" spans="1:34">
       <c r="A33" s="2"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -2004,7 +2633,7 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
       <c r="M33" s="18"/>
-      <c r="N33" s="10"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="16"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
@@ -2026,32 +2655,32 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="13.9" customHeight="1" spans="1:34">
       <c r="A34" s="2"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="22"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
@@ -2062,32 +2691,32 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="15" customHeight="1" spans="1:34">
       <c r="A35" s="2"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="18"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
@@ -2098,32 +2727,36 @@
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
     </row>
-    <row r="36" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="13.9" customHeight="1" spans="1:34">
       <c r="A36" s="2"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
+      <c r="B36" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="16"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="18"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
@@ -2134,36 +2767,32 @@
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
     </row>
-    <row r="37" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="13.9" customHeight="1" spans="1:34">
       <c r="A37" s="2"/>
-      <c r="B37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O37" s="13"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
-      <c r="Y37" s="15"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="22"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
@@ -2174,32 +2803,32 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
     </row>
-    <row r="38" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="15" customHeight="1" spans="1:34">
       <c r="A38" s="2"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="18"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
@@ -2210,32 +2839,36 @@
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
     </row>
-    <row r="39" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="13.9" customHeight="1" spans="1:34">
       <c r="A39" s="2"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
+      <c r="B39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="18"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
@@ -2246,36 +2879,32 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
     </row>
-    <row r="40" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="13.9" customHeight="1" spans="1:34">
       <c r="A40" s="2"/>
-      <c r="B40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="15"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="22"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
@@ -2286,12 +2915,12 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
     </row>
-    <row r="41" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" ht="13.9" customHeight="1" spans="1:34">
       <c r="A41" s="2"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -2300,10 +2929,10 @@
       <c r="K41" s="17"/>
       <c r="L41" s="17"/>
       <c r="M41" s="18"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
       <c r="R41" s="16"/>
       <c r="S41" s="17"/>
       <c r="T41" s="17"/>
@@ -2322,32 +2951,32 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
     </row>
-    <row r="42" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" ht="13.9" customHeight="1" spans="1:34">
       <c r="A42" s="2"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="15"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="22"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
@@ -2358,32 +2987,32 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
     </row>
-    <row r="43" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" ht="27" customHeight="1" spans="1:34">
       <c r="A43" s="2"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="18"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
@@ -2394,32 +3023,36 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" ht="19.15" customHeight="1" spans="1:34">
       <c r="A44" s="2"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
+      <c r="B44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="48"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
@@ -2430,36 +3063,32 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
     </row>
-    <row r="45" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" ht="19.15" customHeight="1" spans="1:34">
       <c r="A45" s="2"/>
-      <c r="B45" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="43"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="47"/>
+      <c r="Y45" s="49"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
@@ -2470,32 +3099,32 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
     </row>
-    <row r="46" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" ht="30" customHeight="1" spans="1:34">
       <c r="A46" s="2"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="46"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
@@ -2506,32 +3135,32 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
     </row>
-    <row r="47" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" ht="30" customHeight="1" spans="1:34">
       <c r="A47" s="2"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="47"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="47"/>
-      <c r="X47" s="47"/>
-      <c r="Y47" s="47"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
@@ -2542,32 +3171,32 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" ht="30" customHeight="1" spans="1:34">
       <c r="A48" s="2"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="47"/>
-      <c r="Y48" s="47"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="33"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="33"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
@@ -2578,32 +3207,32 @@
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
     </row>
-    <row r="49" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" ht="30" customHeight="1" spans="1:34">
       <c r="A49" s="2"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="47"/>
-      <c r="Y49" s="47"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
@@ -2614,32 +3243,32 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
     </row>
-    <row r="50" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" ht="30" customHeight="1" spans="1:34">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="47"/>
-      <c r="Y50" s="47"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="33"/>
+      <c r="W50" s="33"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
@@ -2650,32 +3279,32 @@
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
     </row>
-    <row r="51" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" ht="30" customHeight="1" spans="1:34">
       <c r="A51" s="2"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="47"/>
-      <c r="K51" s="47"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="47"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="47"/>
-      <c r="T51" s="47"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="47"/>
-      <c r="Y51" s="47"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
@@ -2686,32 +3315,32 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" ht="30" customHeight="1" spans="1:34">
       <c r="A52" s="2"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="47"/>
-      <c r="K52" s="47"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="47"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="47"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="47"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="47"/>
-      <c r="Y52" s="47"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
@@ -2722,32 +3351,32 @@
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
     </row>
-    <row r="53" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" ht="27" customHeight="1" spans="1:34">
       <c r="A53" s="2"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="47"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="47"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="47"/>
-      <c r="Y53" s="47"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
@@ -2758,32 +3387,32 @@
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
     </row>
-    <row r="54" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" ht="27" customHeight="1" spans="1:34">
       <c r="A54" s="2"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
@@ -2794,32 +3423,32 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
     </row>
-    <row r="55" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:34">
       <c r="A55" s="2"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
@@ -2830,32 +3459,32 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:34">
       <c r="A56" s="2"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
@@ -2866,32 +3495,32 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:34">
       <c r="A57" s="2"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
@@ -2902,32 +3531,32 @@
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:34">
       <c r="A58" s="2"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
@@ -2938,32 +3567,32 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:34">
       <c r="A59" s="2"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
@@ -2974,32 +3603,32 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:34">
       <c r="A60" s="2"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
@@ -3010,7 +3639,7 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:34">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3046,7 +3675,7 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:34">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3082,7 +3711,7 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:34">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3118,7 +3747,7 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:34">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3154,7 +3783,7 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:34">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3190,7 +3819,7 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:34">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3226,7 +3855,7 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:34">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3262,7 +3891,7 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:34">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3298,7 +3927,7 @@
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:34">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3334,7 +3963,7 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:34">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3370,7 +3999,7 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:34">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3406,7 +4035,7 @@
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:34">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3442,7 +4071,7 @@
       <c r="AG72" s="2"/>
       <c r="AH72" s="2"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:34">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3478,7 +4107,7 @@
       <c r="AG73" s="2"/>
       <c r="AH73" s="2"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:34">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3514,7 +4143,7 @@
       <c r="AG74" s="2"/>
       <c r="AH74" s="2"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:34">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3550,7 +4179,7 @@
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:34">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3586,7 +4215,7 @@
       <c r="AG76" s="2"/>
       <c r="AH76" s="2"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:34">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3622,7 +4251,7 @@
       <c r="AG77" s="2"/>
       <c r="AH77" s="2"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:34">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3658,7 +4287,7 @@
       <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:34">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3694,7 +4323,7 @@
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:34">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3730,7 +4359,7 @@
       <c r="AG80" s="2"/>
       <c r="AH80" s="2"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:34">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3766,7 +4395,7 @@
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:34">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3802,7 +4431,7 @@
       <c r="AG82" s="2"/>
       <c r="AH82" s="2"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:34">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3838,134 +4467,99 @@
       <c r="AG83" s="2"/>
       <c r="AH83" s="2"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
-      <c r="AA84" s="2"/>
-      <c r="AB84" s="2"/>
-      <c r="AC84" s="2"/>
-      <c r="AD84" s="2"/>
-      <c r="AE84" s="2"/>
-      <c r="AF84" s="2"/>
-      <c r="AG84" s="2"/>
-      <c r="AH84" s="2"/>
-    </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="87">
-    <mergeCell ref="B45:M46"/>
-    <mergeCell ref="N45:Y46"/>
-    <mergeCell ref="B47:M53"/>
-    <mergeCell ref="N47:Y53"/>
-    <mergeCell ref="R22:Y23"/>
-    <mergeCell ref="R24:Y25"/>
-    <mergeCell ref="O32:Y33"/>
-    <mergeCell ref="O34:Y35"/>
-    <mergeCell ref="O37:Y38"/>
-    <mergeCell ref="R40:U41"/>
-    <mergeCell ref="V40:Y41"/>
-    <mergeCell ref="F42:I43"/>
-    <mergeCell ref="J42:M43"/>
-    <mergeCell ref="R42:U43"/>
-    <mergeCell ref="V42:Y43"/>
-    <mergeCell ref="O40:Q41"/>
-    <mergeCell ref="C42:E43"/>
-    <mergeCell ref="O42:Q43"/>
-    <mergeCell ref="F40:I41"/>
-    <mergeCell ref="J40:M41"/>
-    <mergeCell ref="X27:Y28"/>
-    <mergeCell ref="L29:M30"/>
-    <mergeCell ref="X29:Y30"/>
-    <mergeCell ref="C32:M33"/>
-    <mergeCell ref="C34:M35"/>
-    <mergeCell ref="O27:Q28"/>
-    <mergeCell ref="C29:E30"/>
-    <mergeCell ref="O29:Q30"/>
-    <mergeCell ref="F27:K28"/>
-    <mergeCell ref="R27:W28"/>
-    <mergeCell ref="F29:K30"/>
-    <mergeCell ref="R29:W30"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="T19:Y20"/>
-    <mergeCell ref="C22:E23"/>
-    <mergeCell ref="O22:Q23"/>
-    <mergeCell ref="C24:E25"/>
-    <mergeCell ref="O24:Q25"/>
-    <mergeCell ref="F22:M23"/>
-    <mergeCell ref="F24:M25"/>
-    <mergeCell ref="O19:Q20"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="R19:S20"/>
-    <mergeCell ref="N13:Y14"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="O15:Q16"/>
-    <mergeCell ref="C17:E18"/>
-    <mergeCell ref="O17:Q18"/>
-    <mergeCell ref="T15:Y16"/>
-    <mergeCell ref="T17:Y18"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="R15:S16"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="R17:S18"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="H15:M16"/>
-    <mergeCell ref="H17:M18"/>
-    <mergeCell ref="H19:M20"/>
-    <mergeCell ref="B13:M14"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:U6"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="N14:N19"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="O26:Q27"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="C39:E40"/>
+    <mergeCell ref="O39:Q40"/>
     <mergeCell ref="B9:D10"/>
     <mergeCell ref="N9:P10"/>
+    <mergeCell ref="B1:Y2"/>
     <mergeCell ref="E9:M10"/>
     <mergeCell ref="Q9:Y10"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="N15:N20"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="N27:N30"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="C19:E20"/>
-    <mergeCell ref="C27:E28"/>
-    <mergeCell ref="C37:M38"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B12:M13"/>
+    <mergeCell ref="N12:Y13"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="O14:Q15"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="O16:Q17"/>
+    <mergeCell ref="H14:M15"/>
+    <mergeCell ref="T14:Y15"/>
+    <mergeCell ref="H16:M17"/>
+    <mergeCell ref="T16:Y17"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="R14:S15"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="R16:S17"/>
+    <mergeCell ref="L26:M27"/>
+    <mergeCell ref="X26:Y27"/>
+    <mergeCell ref="H18:M19"/>
+    <mergeCell ref="T18:Y19"/>
+    <mergeCell ref="C21:E22"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="F21:M22"/>
+    <mergeCell ref="F23:M24"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="R18:S19"/>
+    <mergeCell ref="C41:E42"/>
+    <mergeCell ref="O41:Q42"/>
+    <mergeCell ref="F39:I40"/>
+    <mergeCell ref="J39:M40"/>
+    <mergeCell ref="R39:U40"/>
+    <mergeCell ref="V39:Y40"/>
+    <mergeCell ref="L28:M29"/>
+    <mergeCell ref="X28:Y29"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="C33:M34"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="O28:Q29"/>
+    <mergeCell ref="F26:K27"/>
+    <mergeCell ref="R26:W27"/>
+    <mergeCell ref="F28:K29"/>
+    <mergeCell ref="R28:W29"/>
+    <mergeCell ref="B44:M45"/>
+    <mergeCell ref="N44:Y45"/>
+    <mergeCell ref="B46:M52"/>
+    <mergeCell ref="N46:Y52"/>
+    <mergeCell ref="R21:Y22"/>
+    <mergeCell ref="R23:Y24"/>
+    <mergeCell ref="O31:Y32"/>
+    <mergeCell ref="O33:Y34"/>
+    <mergeCell ref="O36:Y37"/>
+    <mergeCell ref="F41:I42"/>
+    <mergeCell ref="J41:M42"/>
+    <mergeCell ref="R41:U42"/>
+    <mergeCell ref="V41:Y42"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.74803149606299" right="0.74803149606299" top="0.98425196850394" bottom="0.98425196850394" header="0.51181102362205" footer="0.51181102362205"/>
+  <pageSetup paperSize="9" scale="70" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/storage/app/excel/contact_book_1.xlsx
+++ b/storage/app/excel/contact_book_1.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LK_sources\storage\app\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0224F202-4677-491C-8E67-BDA4F7D27AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="25290" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Z$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Z$55</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
-  <si>
-    <t>2022-05-19</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>天気</t>
   </si>
@@ -32,9 +45,6 @@
   </si>
   <si>
     <t>保育士名</t>
-  </si>
-  <si>
-    <t>園長</t>
   </si>
   <si>
     <t>お迎え時間</t>
@@ -87,18 +97,26 @@
   <si>
     <t>保育園での様子・連絡事項</t>
   </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -109,161 +127,24 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,194 +193,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -660,88 +355,82 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,162 +438,25 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -914,9 +466,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -926,6 +532,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,55 +550,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,119 +604,84 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1397,19 +968,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AH83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="AI43" sqref="AI43"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="1"/>
@@ -1424,32 +996,32 @@
     <col min="27" max="27" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:33">
+    <row r="1" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
@@ -1459,32 +1031,32 @@
       <c r="AF1" s="2"/>
       <c r="AG1" s="2"/>
     </row>
-    <row r="2" ht="10.9" customHeight="1" spans="1:33">
+    <row r="2" spans="1:34" ht="10.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -1494,7 +1066,7 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" ht="10.9" customHeight="1" spans="1:33">
+    <row r="3" spans="1:34" ht="10.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1529,26 +1101,28 @@
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
     </row>
-    <row r="4" ht="27" customHeight="1" spans="1:33">
+    <row r="4" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -1568,7 +1142,7 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:33">
+    <row r="5" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1603,36 +1177,34 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="6" ht="27" customHeight="1" spans="1:33">
+    <row r="6" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="35"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="31"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1646,7 +1218,7 @@
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
     </row>
-    <row r="7" ht="8.45" customHeight="1" spans="1:33">
+    <row r="7" spans="1:34" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1681,7 +1253,7 @@
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
     </row>
-    <row r="8" ht="8.45" customHeight="1" spans="1:33">
+    <row r="8" spans="1:34" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1716,36 +1288,36 @@
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
     </row>
-    <row r="9" ht="16.15" customHeight="1" spans="1:33">
+    <row r="9" spans="1:34" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
-      <c r="B9" s="12" t="s">
-        <v>6</v>
+      <c r="B9" s="19" t="s">
+        <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="12" t="s">
-        <v>7</v>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="19" t="s">
+        <v>5</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -1755,32 +1327,32 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" ht="16.15" customHeight="1" spans="1:34">
+    <row r="10" spans="1:34" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -1791,7 +1363,7 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:34">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1827,36 +1399,36 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12" ht="16.15" customHeight="1" spans="1:34">
+    <row r="12" spans="1:34" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="14" t="s">
-        <v>8</v>
+      <c r="B12" s="32" t="s">
+        <v>6</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="37" t="s">
-        <v>9</v>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33" t="s">
+        <v>7</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -1867,32 +1439,32 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" ht="16.15" customHeight="1" spans="1:34">
+    <row r="13" spans="1:34" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -1903,36 +1475,36 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" ht="23.45" customHeight="1" spans="1:34">
+    <row r="14" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="67"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -1943,32 +1515,32 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
     </row>
-    <row r="15" ht="23.45" customHeight="1" spans="1:34">
+    <row r="15" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="70"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -1979,32 +1551,32 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row r="16" ht="23.45" customHeight="1" spans="1:34">
+    <row r="16" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="60"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="62"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
@@ -2015,32 +1587,32 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17" ht="23.45" customHeight="1" spans="1:34">
+    <row r="17" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="65"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -2051,32 +1623,32 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
     </row>
-    <row r="18" ht="23.45" customHeight="1" spans="1:34">
+    <row r="18" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="62"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -2087,32 +1659,32 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
     </row>
-    <row r="19" ht="23.45" customHeight="1" spans="1:34">
+    <row r="19" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="65"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -2123,7 +1695,7 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:34">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2159,40 +1731,40 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:34">
+    <row r="21" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O21" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="24"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -2203,32 +1775,32 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:34">
+    <row r="22" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="15"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -2239,36 +1811,36 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:34">
+    <row r="23" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="14" t="s">
-        <v>14</v>
+      <c r="C23" s="32" t="s">
+        <v>12</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="15"/>
-      <c r="O23" s="37" t="s">
-        <v>15</v>
+      <c r="O23" s="33" t="s">
+        <v>13</v>
       </c>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="24"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -2279,32 +1851,32 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:34">
+    <row r="24" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="15"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -2315,7 +1887,7 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:34">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2351,40 +1923,36 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:34">
+    <row r="26" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
-      <c r="B26" s="15" t="s">
-        <v>16</v>
+      <c r="B26" s="16" t="s">
+        <v>14</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>12</v>
+      <c r="C26" s="34"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="16" t="s">
+        <v>14</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="18"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="62"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
@@ -2395,32 +1963,32 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:34">
+    <row r="27" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="22"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="65"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
@@ -2431,36 +1999,32 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:34">
+    <row r="28" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="60"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="61"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="62"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -2471,32 +2035,32 @@
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:34">
+    <row r="29" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="22"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="64"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="65"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -2507,32 +2071,32 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:34">
+    <row r="30" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="61"/>
+      <c r="V30" s="61"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="62"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
@@ -2543,36 +2107,32 @@
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
     </row>
-    <row r="31" ht="13.9" customHeight="1" spans="1:34">
+    <row r="31" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
-      <c r="B31" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="64"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="65"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
@@ -2583,32 +2143,32 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
     </row>
-    <row r="32" ht="13.9" customHeight="1" spans="1:34">
+    <row r="32" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="22"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
@@ -2619,32 +2179,36 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" ht="13.9" customHeight="1" spans="1:34">
+    <row r="33" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="18"/>
+      <c r="B33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="7"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
@@ -2655,32 +2219,32 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" ht="13.9" customHeight="1" spans="1:34">
+    <row r="34" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="15"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="22"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="22"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="10"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
@@ -2691,32 +2255,32 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" ht="15" customHeight="1" spans="1:34">
+    <row r="35" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="7"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
@@ -2727,36 +2291,32 @@
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
     </row>
-    <row r="36" ht="13.9" customHeight="1" spans="1:34">
+    <row r="36" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
-      <c r="B36" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" s="16"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="18"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="10"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
@@ -2767,32 +2327,32 @@
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
     </row>
-    <row r="37" ht="13.9" customHeight="1" spans="1:34">
+    <row r="37" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="22"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
@@ -2803,32 +2363,36 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
     </row>
-    <row r="38" ht="15" customHeight="1" spans="1:34">
+    <row r="38" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
+      <c r="B38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="7"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
@@ -2839,36 +2403,32 @@
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
     </row>
-    <row r="39" ht="13.9" customHeight="1" spans="1:34">
+    <row r="39" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-      <c r="B39" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="18"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="10"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
@@ -2879,32 +2439,32 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
     </row>
-    <row r="40" ht="13.9" customHeight="1" spans="1:34">
+    <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="22"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="21"/>
-      <c r="X40" s="21"/>
-      <c r="Y40" s="22"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
@@ -2915,32 +2475,36 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
     </row>
-    <row r="41" ht="13.9" customHeight="1" spans="1:34">
+    <row r="41" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="18"/>
+      <c r="B41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="7"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
@@ -2951,32 +2515,32 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
     </row>
-    <row r="42" ht="13.9" customHeight="1" spans="1:34">
+    <row r="42" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="21"/>
-      <c r="X42" s="21"/>
-      <c r="Y42" s="22"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="10"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
@@ -2987,32 +2551,32 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
     </row>
-    <row r="43" ht="27" customHeight="1" spans="1:34">
+    <row r="43" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="7"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
@@ -3023,36 +2587,32 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" ht="19.15" customHeight="1" spans="1:34">
+    <row r="44" spans="1:34" ht="13.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
-      <c r="B44" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="48"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="10"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
@@ -3063,32 +2623,32 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
     </row>
-    <row r="45" ht="19.15" customHeight="1" spans="1:34">
+    <row r="45" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="47"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="47"/>
-      <c r="Y45" s="49"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
@@ -3099,32 +2659,36 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
     </row>
-    <row r="46" ht="30" customHeight="1" spans="1:34">
+    <row r="46" spans="1:34" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
+      <c r="B46" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="55"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
@@ -3135,32 +2699,32 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
     </row>
-    <row r="47" ht="30" customHeight="1" spans="1:34">
+    <row r="47" spans="1:34" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="57"/>
+      <c r="U47" s="57"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="57"/>
+      <c r="X47" s="57"/>
+      <c r="Y47" s="58"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
@@ -3171,32 +2735,32 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" ht="30" customHeight="1" spans="1:34">
+    <row r="48" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
+      <c r="U48" s="59"/>
+      <c r="V48" s="59"/>
+      <c r="W48" s="59"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="59"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
@@ -3207,32 +2771,32 @@
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
     </row>
-    <row r="49" ht="30" customHeight="1" spans="1:34">
+    <row r="49" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="59"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
+      <c r="U49" s="59"/>
+      <c r="V49" s="59"/>
+      <c r="W49" s="59"/>
+      <c r="X49" s="59"/>
+      <c r="Y49" s="59"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
@@ -3243,32 +2807,32 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
     </row>
-    <row r="50" ht="30" customHeight="1" spans="1:34">
+    <row r="50" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="33"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="59"/>
+      <c r="U50" s="59"/>
+      <c r="V50" s="59"/>
+      <c r="W50" s="59"/>
+      <c r="X50" s="59"/>
+      <c r="Y50" s="59"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
@@ -3279,32 +2843,32 @@
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
     </row>
-    <row r="51" ht="30" customHeight="1" spans="1:34">
+    <row r="51" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="59"/>
+      <c r="R51" s="59"/>
+      <c r="S51" s="59"/>
+      <c r="T51" s="59"/>
+      <c r="U51" s="59"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="59"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
@@ -3315,32 +2879,32 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" ht="30" customHeight="1" spans="1:34">
+    <row r="52" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="59"/>
+      <c r="R52" s="59"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="59"/>
+      <c r="U52" s="59"/>
+      <c r="V52" s="59"/>
+      <c r="W52" s="59"/>
+      <c r="X52" s="59"/>
+      <c r="Y52" s="59"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
@@ -3351,32 +2915,32 @@
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
     </row>
-    <row r="53" ht="27" customHeight="1" spans="1:34">
+    <row r="53" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="59"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59"/>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
@@ -3387,32 +2951,32 @@
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
     </row>
-    <row r="54" ht="27" customHeight="1" spans="1:34">
+    <row r="54" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="59"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="59"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
@@ -3423,7 +2987,7 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3459,7 +3023,7 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3495,7 +3059,7 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3531,7 +3095,7 @@
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3567,7 +3131,7 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3603,7 +3167,7 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3639,7 +3203,7 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3675,7 +3239,7 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3711,7 +3275,7 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3747,7 +3311,7 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3783,7 +3347,7 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3819,7 +3383,7 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3855,7 +3419,7 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3891,7 +3455,7 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3927,7 +3491,7 @@
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3963,7 +3527,7 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3999,7 +3563,7 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4035,7 +3599,7 @@
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4071,7 +3635,7 @@
       <c r="AG72" s="2"/>
       <c r="AH72" s="2"/>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4107,7 +3671,7 @@
       <c r="AG73" s="2"/>
       <c r="AH73" s="2"/>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4143,7 +3707,7 @@
       <c r="AG74" s="2"/>
       <c r="AH74" s="2"/>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4179,7 +3743,7 @@
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4215,7 +3779,7 @@
       <c r="AG76" s="2"/>
       <c r="AH76" s="2"/>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4251,7 +3815,7 @@
       <c r="AG77" s="2"/>
       <c r="AH77" s="2"/>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4287,7 +3851,7 @@
       <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4323,7 +3887,7 @@
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4359,7 +3923,7 @@
       <c r="AG80" s="2"/>
       <c r="AH80" s="2"/>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4395,7 +3959,7 @@
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4431,7 +3995,7 @@
       <c r="AG82" s="2"/>
       <c r="AH82" s="2"/>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4467,41 +4031,131 @@
       <c r="AG83" s="2"/>
       <c r="AH83" s="2"/>
     </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2"/>
+      <c r="AG84" s="2"/>
+      <c r="AH84" s="2"/>
+    </row>
+    <row r="85" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="2"/>
+      <c r="AG85" s="2"/>
+      <c r="AH85" s="2"/>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="87">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:U6"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="N14:N19"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="O18:Q19"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="93">
+    <mergeCell ref="T30:Y31"/>
+    <mergeCell ref="F26:G27"/>
+    <mergeCell ref="H26:M27"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="H28:M29"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="H30:M31"/>
+    <mergeCell ref="T26:Y27"/>
+    <mergeCell ref="T28:Y29"/>
+    <mergeCell ref="B46:M47"/>
+    <mergeCell ref="N46:Y47"/>
+    <mergeCell ref="B48:M54"/>
+    <mergeCell ref="N48:Y54"/>
+    <mergeCell ref="R21:Y22"/>
+    <mergeCell ref="R23:Y24"/>
+    <mergeCell ref="O33:Y34"/>
+    <mergeCell ref="O35:Y36"/>
+    <mergeCell ref="O38:Y39"/>
+    <mergeCell ref="F43:I44"/>
+    <mergeCell ref="J43:M44"/>
+    <mergeCell ref="R43:U44"/>
+    <mergeCell ref="V43:Y44"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="C33:M34"/>
+    <mergeCell ref="C35:M36"/>
+    <mergeCell ref="C28:E29"/>
+    <mergeCell ref="O28:Q29"/>
+    <mergeCell ref="O30:Q31"/>
+    <mergeCell ref="N26:N31"/>
+    <mergeCell ref="R26:S27"/>
+    <mergeCell ref="R28:S29"/>
+    <mergeCell ref="R30:S31"/>
     <mergeCell ref="C26:E27"/>
     <mergeCell ref="O26:Q27"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="C39:E40"/>
-    <mergeCell ref="O39:Q40"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="N9:P10"/>
-    <mergeCell ref="B1:Y2"/>
-    <mergeCell ref="E9:M10"/>
-    <mergeCell ref="Q9:Y10"/>
+    <mergeCell ref="O43:Q44"/>
+    <mergeCell ref="F41:I42"/>
+    <mergeCell ref="J41:M42"/>
+    <mergeCell ref="R41:U42"/>
+    <mergeCell ref="V41:Y42"/>
+    <mergeCell ref="H18:M19"/>
+    <mergeCell ref="T18:Y19"/>
+    <mergeCell ref="C21:E22"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="O23:Q24"/>
+    <mergeCell ref="F21:M22"/>
+    <mergeCell ref="F23:M24"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="R18:S19"/>
+    <mergeCell ref="O18:Q19"/>
     <mergeCell ref="B12:M13"/>
     <mergeCell ref="N12:Y13"/>
     <mergeCell ref="C14:E15"/>
@@ -4516,50 +4170,38 @@
     <mergeCell ref="R14:S15"/>
     <mergeCell ref="F16:G17"/>
     <mergeCell ref="R16:S17"/>
-    <mergeCell ref="L26:M27"/>
-    <mergeCell ref="X26:Y27"/>
-    <mergeCell ref="H18:M19"/>
-    <mergeCell ref="T18:Y19"/>
-    <mergeCell ref="C21:E22"/>
-    <mergeCell ref="O21:Q22"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="O23:Q24"/>
-    <mergeCell ref="F21:M22"/>
-    <mergeCell ref="F23:M24"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="R18:S19"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="N9:P10"/>
+    <mergeCell ref="B1:Y2"/>
+    <mergeCell ref="E9:M10"/>
+    <mergeCell ref="Q9:Y10"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:U6"/>
+    <mergeCell ref="C38:M39"/>
     <mergeCell ref="C41:E42"/>
     <mergeCell ref="O41:Q42"/>
-    <mergeCell ref="F39:I40"/>
-    <mergeCell ref="J39:M40"/>
-    <mergeCell ref="R39:U40"/>
-    <mergeCell ref="V39:Y40"/>
-    <mergeCell ref="L28:M29"/>
-    <mergeCell ref="X28:Y29"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="C33:M34"/>
-    <mergeCell ref="C28:E29"/>
-    <mergeCell ref="O28:Q29"/>
-    <mergeCell ref="F26:K27"/>
-    <mergeCell ref="R26:W27"/>
-    <mergeCell ref="F28:K29"/>
-    <mergeCell ref="R28:W29"/>
-    <mergeCell ref="B44:M45"/>
-    <mergeCell ref="N44:Y45"/>
-    <mergeCell ref="B46:M52"/>
-    <mergeCell ref="N46:Y52"/>
-    <mergeCell ref="R21:Y22"/>
-    <mergeCell ref="R23:Y24"/>
-    <mergeCell ref="O31:Y32"/>
-    <mergeCell ref="O33:Y34"/>
-    <mergeCell ref="O36:Y37"/>
-    <mergeCell ref="F41:I42"/>
-    <mergeCell ref="J41:M42"/>
-    <mergeCell ref="R41:U42"/>
-    <mergeCell ref="V41:Y42"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="N14:N19"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="N33:N36"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="N41:N44"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="C43:E44"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
-  <pageMargins left="0.74803149606299" right="0.74803149606299" top="0.98425196850394" bottom="0.98425196850394" header="0.51181102362205" footer="0.51181102362205"/>
-  <pageSetup paperSize="9" scale="70" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>